--- a/REVER_DailyTracker_20200526.xlsx
+++ b/REVER_DailyTracker_20200526.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4724AC-22BB-4015-AD1E-85B035184ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708DAFB-5AA4-4599-88C4-51110E6CC31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -66,25 +66,9 @@
     <t>% of completion</t>
   </si>
   <si>
-    <t>RPA Dotnet</t>
-  </si>
-  <si>
-    <t>[Backend] CRM</t>
-  </si>
-  <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>DotnetAPP</t>
-  </si>
-  <si>
-    <t>Loginpage (Frontend)</t>
-  </si>
-  <si>
-    <t>Tables are created at RPA Sale database, whereas relationship is penidng, after discussing with Mr Bharathi san, it will be over,
-if any changes or modification can be done.</t>
-  </si>
-  <si>
     <t>29/04/2020</t>
   </si>
   <si>
@@ -103,97 +87,10 @@
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
   </si>
   <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website design- Business page </t>
-  </si>
-  <si>
-    <t>Website design- Contact page &amp; Business page popup</t>
-  </si>
-  <si>
-    <t>DOTNET APP</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Muji Multi Language(Resource Changing)</t>
-  </si>
-  <si>
-    <t>Hit Counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit Counter, UserPresentation </t>
-  </si>
-  <si>
-    <t>UserPresentation Chages Completed and design Chages</t>
-  </si>
-  <si>
-    <t>Retrive Values for DB  and Ui Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, </t>
-  </si>
-  <si>
-    <t>tblDeploySchedule, tblDeployStatu, SubnetController, DeploySchedulesController, FoldersController, FormatsController, HomeController, StoreGroupFoldersController, StoreGroupsController, StreamServersController, StreamServerSubnetsController, VideoFilesController, StreamServerFormats</t>
-  </si>
-  <si>
-    <t>tblFolder, tblFolder, tblStreamServer, tblStreamServerSubnet, DeployLogs, DeploySchedules, DeployStatus, Formats, Shared, StoreMst, StoreSubnets, StreamServers, StreamServerSubnets, Subnets, VideoFiles</t>
-  </si>
-  <si>
-    <t>Hit Counter, SocialMedia</t>
-  </si>
-  <si>
-    <t>Retrive table Values for DB  and Ui Design</t>
-  </si>
-  <si>
-    <t>Hit Counter Design Changes Completed, SocialMedia Working</t>
-  </si>
-  <si>
-    <t>CountDrs Testing</t>
-  </si>
-  <si>
-    <t>Matching Values for all centers ssc1-ssc8</t>
-  </si>
-  <si>
-    <t>Mobile Srevice Centers , SocialMedia</t>
-  </si>
-  <si>
-    <t>Social Media</t>
-  </si>
-  <si>
-    <t>Insert table values</t>
-  </si>
-  <si>
-    <t>retrive db and css design</t>
-  </si>
-  <si>
-    <t>GridView Show the table, Delete</t>
-  </si>
-  <si>
-    <t>Social Media, Count Drs Verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Drs data check </t>
-  </si>
-  <si>
-    <t>PowerPoint Presentation design and dynamic download</t>
-  </si>
-  <si>
-    <t>Testing RPA_Sales Application</t>
-  </si>
-  <si>
-    <t>Login Page, User Management, Video Management, PPT Management</t>
-  </si>
-  <si>
-    <t>RPA_Sales Application (Language Changing), GSPN Password Changing</t>
-  </si>
-  <si>
-    <t>Login Page, User Management, CRM, SocialMedia, Task Management, Video Management, PPT Management, Dashboard, RPA Sample Reports</t>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Validations Front end and Back end</t>
   </si>
 </sst>
 </file>
@@ -325,7 +222,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -335,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -352,7 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -374,22 +272,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +603,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -743,28 +638,14 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -817,7 +698,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -873,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
@@ -888,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -942,7 +823,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1001,10 +882,10 @@
         <v>43950</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="7">
         <v>0.3</v>
@@ -1022,10 +903,10 @@
         <v>43951</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="E3" s="7">
         <v>0.5</v>
@@ -1077,7 +958,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1069,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1180,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1310,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1351,68 +1232,28 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43977</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
@@ -1425,36 +1266,33 @@
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
     <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1403,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1576,17 +1414,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -1617,444 +1455,66 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14" t="s">
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <v>43955</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22">
-        <v>43956</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22">
-        <v>43957</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="24">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22">
-        <v>43958</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22">
-        <v>43959</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22">
-        <v>43962</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="24">
-        <v>8</v>
-      </c>
-      <c r="B10" s="22">
-        <v>43963</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="24">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22">
-        <v>43964</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="24">
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="22">
-        <v>43965</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22">
-        <v>43966</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="24">
-        <v>12</v>
-      </c>
-      <c r="B14" s="22">
-        <v>43969</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="24">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22">
-        <v>43970</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="24">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22">
-        <v>43971</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="29">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="24">
-        <v>15</v>
-      </c>
-      <c r="B17" s="22">
-        <v>43972</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="24">
-        <v>16</v>
-      </c>
-      <c r="B18" s="22">
-        <v>43973</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="24">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22">
-        <v>43977</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1">
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="9"/>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="10"/>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="11"/>
-      <c r="C27" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +1625,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +1736,7 @@
     <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_20200526.xlsx
+++ b/REVER_DailyTracker_20200526.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708DAFB-5AA4-4599-88C4-51110E6CC31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F7D64-8C35-4EFC-B073-9B59DAA3829D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -81,16 +81,16 @@
     <t>APK sent.</t>
   </si>
   <si>
-    <t>MujiStore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
-  </si>
-  <si>
     <t>RPA</t>
   </si>
   <si>
     <t>Validations Front end and Back end</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>Account Report</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +125,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -268,9 +260,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -606,15 +595,15 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -638,7 +627,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
@@ -715,15 +704,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -834,21 +823,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -874,46 +863,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>43950</v>
+        <v>43977</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="8"/>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="10"/>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -967,23 +1046,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1078,23 +1157,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>43977</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1189,135 +1380,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>43977</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1412,23 +1491,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1523,23 +1602,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1632,115 +1711,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_20200526.xlsx
+++ b/REVER_DailyTracker_20200526.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708DAFB-5AA4-4599-88C4-51110E6CC31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776E9DA4-342F-4B92-B568-7056D8FC88EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Validations Front end and Back end</t>
+  </si>
+  <si>
+    <t>Hayaai APP,push notification to B2C,job creation,job display</t>
+  </si>
+  <si>
+    <t>Coding completed,corrected data,testing is pending</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1124,10 +1130,18 @@
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1193,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20200526.xlsx
+++ b/REVER_DailyTracker_20200526.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvija\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5F7D64-8C35-4EFC-B073-9B59DAA3829D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07595368-23D4-49CF-B9C7-A53D64FB59DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,7 +882,7 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1"/>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -939,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
